--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-practitionerrole-name.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-practitionerrole-name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="179">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -347,104 +347,85 @@
     <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension:assemblyOrder</t>
+  </si>
+  <si>
+    <t>assemblyOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {humanname-assembly-order}
 </t>
   </si>
   <si>
-    <t>closed</t>
+    <t>Preferred display order of name parts</t>
+  </si>
+  <si>
+    <t>A code that represents the preferred display order of the components of this human name.</t>
+  </si>
+  <si>
+    <t>Extension.value[x].use</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueHumanName</t>
-  </si>
-  <si>
-    <t>valueHumanName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueHumanName.id</t>
-  </si>
-  <si>
-    <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueHumanName.extension</t>
-  </si>
-  <si>
-    <t>Extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueHumanName.use</t>
-  </si>
-  <si>
-    <t>Extension.value[x].use</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
     <t>unique(./use)</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueHumanName.text</t>
-  </si>
-  <si>
     <t>Extension.value[x].text</t>
   </si>
   <si>
@@ -464,9 +445,6 @@
   </si>
   <si>
     <t>./formatted</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueHumanName.family</t>
   </si>
   <si>
     <t>Extension.value[x].family</t>
@@ -491,9 +469,6 @@
     <t>./part[partType = FAM]</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueHumanName.given</t>
-  </si>
-  <si>
     <t>Extension.value[x].given</t>
   </si>
   <si>
@@ -516,9 +491,6 @@
     <t>./part[partType = GIV]</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueHumanName.prefix</t>
-  </si>
-  <si>
     <t>Extension.value[x].prefix</t>
   </si>
   <si>
@@ -528,15 +500,24 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Civilités des personnes physiques du RASS</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J78-Civilite-RASS/FHIR/JDV-J78-Civilite-RASS</t>
+  </si>
+  <si>
     <t>HumanName.prefix</t>
   </si>
   <si>
     <t>./part[partType = PFX]</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueHumanName.suffix</t>
-  </si>
-  <si>
     <t>Extension.value[x].suffix</t>
   </si>
   <si>
@@ -549,13 +530,16 @@
     <t>Synonyme MOS : civilite</t>
   </si>
   <si>
+    <t>Civilités d'exercice d'un professionnel du RASS</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS</t>
+  </si>
+  <si>
     <t>HumanName.suffix</t>
   </si>
   <si>
     <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueHumanName.period</t>
   </si>
   <si>
     <t>Extension.value[x].period</t>
@@ -571,10 +555,18 @@
     <t>Indicates the period of time when this name was valid for the named person.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Allows names to be placed in historical context.</t>
   </si>
   <si>
     <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
@@ -906,42 +898,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.9921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.0625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="92.578125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="95.703125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="24.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.56640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.8046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.06640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="90.21875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.57421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1359,7 +1351,7 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>95</v>
@@ -1548,14 +1540,16 @@
         <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>102</v>
@@ -1570,22 +1564,20 @@
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
         <v>74</v>
       </c>
@@ -1606,13 +1598,13 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1663,7 +1655,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -1678,26 +1670,26 @@
         <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -1709,15 +1701,17 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>74</v>
@@ -1754,53 +1748,55 @@
         <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -1812,16 +1808,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1859,16 +1855,16 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>94</v>
@@ -1880,21 +1876,21 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1911,25 +1907,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -1954,13 +1950,13 @@
         <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>74</v>
@@ -1978,7 +1974,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -1987,21 +1983,21 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2021,22 +2017,22 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2085,7 +2081,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2094,25 +2090,25 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2122,25 +2118,25 @@
         <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2190,7 +2186,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2199,25 +2195,25 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2227,25 +2223,25 @@
         <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2295,7 +2291,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2304,21 +2300,21 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2329,7 +2325,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2338,18 +2334,20 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -2374,13 +2372,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -2398,7 +2396,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2407,21 +2405,21 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2435,25 +2433,25 @@
         <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2479,13 +2477,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -2503,7 +2501,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2512,21 +2510,21 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2546,20 +2544,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -2608,7 +2608,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -2617,13 +2617,13 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
